--- a/Connexxion data - 2024-2025.xlsx
+++ b/Connexxion data - 2024-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys.sharepoint.com/sites/TW-or/Gedeelde documenten/or/2024-2025/Jaar 2/Project5-I - OR-deel/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/175d33217359976b/Documenten/Toegepaste wiskunde/Project/Project-5/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="11_8AA2670CF2338C2A65A7E20D0AD3F4B48DA6616B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD944898-74F6-4240-A141-6C0A11B157B4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10523" yWindow="1152" windowWidth="11188" windowHeight="9349" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dienstregeling" sheetId="3" r:id="rId1"/>
@@ -968,7 +968,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1250,11 +1250,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>3</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>3</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>3</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>3</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>4</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>4</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>4</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>4</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>4</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>4</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -5864,14 +5864,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6088,6 +6088,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013B620F01982514694878B55267266B0" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="b766b0002d27b841048f4e26ce56a6ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xmlns:ns3="c6fe3531-949f-4c96-ac1d-b793c48e3f25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19b1c955cd3d6da461c7724026070e4b" ns2:_="" ns3:_="">
     <xsd:import namespace="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
@@ -6302,15 +6311,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30D6FDD2-FF62-4B13-9A34-5A609285E718}">
   <ds:schemaRefs>
@@ -6329,6 +6329,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E93F530E-264F-4AD7-B88E-4B975E2E9C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516E1ACF-4E23-476B-BB69-1CA2D691FFA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6345,12 +6353,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E93F530E-264F-4AD7-B88E-4B975E2E9C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>